--- a/bin/MM_scenario_config.xlsx
+++ b/bin/MM_scenario_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prot_nf_auto\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB8AA20-100D-4F3C-8B27-B427F59E9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEB8089-4934-4947-AB21-81BF5DA15C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11820" yWindow="-16365" windowWidth="29130" windowHeight="15930" tabRatio="799" firstSheet="7" activeTab="11" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
+    <workbookView xWindow="-11775" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="7" activeTab="12" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオイメージ_AMF" sheetId="4" state="hidden" r:id="rId1"/>
@@ -910,7 +910,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="309">
   <si>
     <t>シナリオ</t>
     <phoneticPr fontId="1"/>
@@ -3110,6 +3110,26 @@
     <rPh sb="14" eb="15">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PASSWD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eccd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kddiadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxxx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -18512,7 +18532,7 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F10" sqref="F10"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
@@ -19300,9 +19320,11 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -19310,9 +19332,10 @@
     <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="44" t="s">
         <v>193</v>
       </c>
@@ -19334,8 +19357,17 @@
       <c r="G1" s="44" t="s">
         <v>262</v>
       </c>
+      <c r="H1" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -19357,8 +19389,17 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -19380,8 +19421,17 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>255</v>
       </c>
@@ -19403,8 +19453,17 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J4" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>257</v>
       </c>
@@ -19426,8 +19485,17 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>259</v>
       </c>
@@ -19449,8 +19517,17 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I6" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -19472,8 +19549,17 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -19495,8 +19581,17 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="H8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -19517,6 +19612,15 @@
       </c>
       <c r="G9">
         <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -21856,15 +21960,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a138ede8-6299-4a04-8719-93fd95b4d78e" xsi:nil="true"/>
@@ -21875,6 +21970,15 @@
     <_x5099__x8003_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21897,14 +22001,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D865F6-7CA3-432D-8730-3D120F762E57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{149AE754-7726-48F5-811C-89198B5539B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -21919,4 +22015,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D865F6-7CA3-432D-8730-3D120F762E57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/bin/MM_scenario_config.xlsx
+++ b/bin/MM_scenario_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prot_nf_auto\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEB8089-4934-4947-AB21-81BF5DA15C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A8227A-E7E0-4DC5-B40E-531049552F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11775" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="7" activeTab="12" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
+    <workbookView xWindow="-11775" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="799" firstSheet="7" activeTab="13" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオイメージ_AMF" sheetId="4" state="hidden" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="SUB002" sheetId="21" r:id="rId11"/>
     <sheet name="SUB003" sheetId="28" r:id="rId12"/>
     <sheet name="LIST001" sheetId="15" r:id="rId13"/>
-    <sheet name="DEFAULT_OPTION" sheetId="19" r:id="rId14"/>
+    <sheet name="LIST002" sheetId="30" r:id="rId14"/>
+    <sheet name="DEFAULT_OPTION" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -910,7 +911,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="319">
   <si>
     <t>シナリオ</t>
     <phoneticPr fontId="1"/>
@@ -3131,6 +3132,36 @@
   <si>
     <t>xxxxx</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tam5-er-s01-smf-001</t>
+  </si>
+  <si>
+    <t>tam5-er-s01-smf-001.mnc054.mcc440.3gppnetwork.org.</t>
+  </si>
+  <si>
+    <t>tam5-er-s01-smf-002</t>
+  </si>
+  <si>
+    <t>tam5-er-s01-smf-002.mnc054.mcc440.3gppnetwork.org.</t>
+  </si>
+  <si>
+    <t>oym3-er-s01-smf-001</t>
+  </si>
+  <si>
+    <t>oym3-er-s01-smf-001.mnc054.mcc440.3gppnetwork.org.</t>
+  </si>
+  <si>
+    <t>oym3-er-s01-smf-002</t>
+  </si>
+  <si>
+    <t>oym3-er-s01-smf-002.mnc054.mcc440.3gppnetwork.org.</t>
+  </si>
+  <si>
+    <t>osc2-er-s01-smf-001</t>
+  </si>
+  <si>
+    <t>osc2-er-s01-smf-002</t>
   </si>
 </sst>
 </file>
@@ -19322,7 +19353,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -19630,6 +19661,320 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A985F1-CD1D-458C-A73C-E59B261D5583}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="22.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I6" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15EF7BB-53D9-477D-9962-8A7CC644CB26}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -21960,6 +22305,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a138ede8-6299-4a04-8719-93fd95b4d78e" xsi:nil="true"/>
@@ -21970,15 +22324,6 @@
     <_x5099__x8003_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22001,6 +22346,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D865F6-7CA3-432D-8730-3D120F762E57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{149AE754-7726-48F5-811C-89198B5539B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -22015,12 +22368,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D865F6-7CA3-432D-8730-3D120F762E57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/bin/MM_scenario_config.xlsx
+++ b/bin/MM_scenario_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prot_nf_auto\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE2C717-CE3F-4709-A79E-92F06C5C6305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547617CA-1B50-4C7B-BE43-7547BF92D7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11820" yWindow="-16365" windowWidth="29130" windowHeight="15930" tabRatio="703" activeTab="1" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
+    <workbookView xWindow="7493" yWindow="-16297" windowWidth="28994" windowHeight="15794" tabRatio="703" activeTab="5" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="31" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,9 +1508,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2870,9 +2867,9 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3166,7 +3163,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3783,8 +3780,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5010,8 +5007,8 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -5030,7 +5027,7 @@
       <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="5" t="s">
         <v>186</v>
       </c>
       <c r="C1" s="37" t="s">
